--- a/Transformation and Regression.xlsx
+++ b/Transformation and Regression.xlsx
@@ -5,20 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bandori stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bandori stats 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FAF80C-A382-480D-AB70-063DE434A23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B074AE2-9BAB-4823-BE11-74FC85D7C4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F6F68922-FD8B-47EE-B145-9A0F65F4D492}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{72BB811C-F6F3-4AC9-8A98-7FDAE3288620}"/>
   </bookViews>
   <sheets>
-    <sheet name="PCA Transform Matrix for Hit's" sheetId="1" r:id="rId1"/>
-    <sheet name="PCA Transform Matrix for Note's" sheetId="2" r:id="rId2"/>
-    <sheet name="Regression constant on PCA Hit" sheetId="3" r:id="rId3"/>
-    <sheet name="Regression constant on PCA Note" sheetId="4" r:id="rId4"/>
-    <sheet name="Positive Negative Correction" sheetId="5" r:id="rId5"/>
-    <sheet name="Curve Pleatu Correction" sheetId="6" r:id="rId6"/>
+    <sheet name="Hit Transform" sheetId="1" r:id="rId1"/>
+    <sheet name="Note Transform" sheetId="2" r:id="rId2"/>
+    <sheet name="Regression" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,6 +33,39 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>exp(p)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ln[c]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ln[s]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Const</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -79,11 +109,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -399,327 +426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851E7559-C5CC-4686-BBDF-EDE76AA21D29}">
-  <dimension ref="A1:E18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1">
-        <v>0.57382241166954029</v>
-      </c>
-      <c r="B1">
-        <v>0.4033004611678479</v>
-      </c>
-      <c r="C1">
-        <v>0.21830206005755121</v>
-      </c>
-      <c r="D1">
-        <v>0.36325833487801057</v>
-      </c>
-      <c r="E1">
-        <v>0.31414265059529328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>0.49501249347020898</v>
-      </c>
-      <c r="B2">
-        <v>0.52622974207210904</v>
-      </c>
-      <c r="C2">
-        <v>0.36615477573266397</v>
-      </c>
-      <c r="D2">
-        <v>0.19700301216408697</v>
-      </c>
-      <c r="E2">
-        <v>0.31733632551633473</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>0.60007073563476721</v>
-      </c>
-      <c r="B3">
-        <v>0.53871449496282664</v>
-      </c>
-      <c r="C3">
-        <v>0.3245608195429443</v>
-      </c>
-      <c r="D3">
-        <v>0.13169128392674301</v>
-      </c>
-      <c r="E3">
-        <v>-4.9297755108787249E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>0.66737886743425412</v>
-      </c>
-      <c r="B4">
-        <v>0.48749418159802316</v>
-      </c>
-      <c r="C4">
-        <v>0.27835893722665078</v>
-      </c>
-      <c r="D4">
-        <v>-2.9455065267078733E-2</v>
-      </c>
-      <c r="E4">
-        <v>-0.24913059658561967</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>0.74548888683142756</v>
-      </c>
-      <c r="B5">
-        <v>0.45226027640670641</v>
-      </c>
-      <c r="C5">
-        <v>0.14429053340918718</v>
-      </c>
-      <c r="D5">
-        <v>-0.13260314325111808</v>
-      </c>
-      <c r="E5">
-        <v>-0.24317613918709052</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>0.76602793218238685</v>
-      </c>
-      <c r="B6">
-        <v>0.43870780749946647</v>
-      </c>
-      <c r="C6">
-        <v>1.2064088620662232E-2</v>
-      </c>
-      <c r="D6">
-        <v>-0.20742733554723949</v>
-      </c>
-      <c r="E6">
-        <v>-0.19763075826211257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>0.79362929369794877</v>
-      </c>
-      <c r="B7">
-        <v>0.37082856356018856</v>
-      </c>
-      <c r="C7">
-        <v>-0.12540995113224154</v>
-      </c>
-      <c r="D7">
-        <v>-0.22153693927869059</v>
-      </c>
-      <c r="E7">
-        <v>-7.581209786333834E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>0.77717842070742416</v>
-      </c>
-      <c r="B8">
-        <v>0.32399254561782631</v>
-      </c>
-      <c r="C8">
-        <v>-0.28654077761889102</v>
-      </c>
-      <c r="D8">
-        <v>-0.21503655620866072</v>
-      </c>
-      <c r="E8">
-        <v>6.2136585960894004E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>0.78811901852142674</v>
-      </c>
-      <c r="B9">
-        <v>0.18711930409461056</v>
-      </c>
-      <c r="C9">
-        <v>-0.37456336159028192</v>
-      </c>
-      <c r="D9">
-        <v>-0.1385270523109681</v>
-      </c>
-      <c r="E9">
-        <v>0.21288133831999895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>0.76988850103486905</v>
-      </c>
-      <c r="B10">
-        <v>9.4536571976859163E-2</v>
-      </c>
-      <c r="C10">
-        <v>-0.44420896814129029</v>
-      </c>
-      <c r="D10">
-        <v>-8.9119053213323161E-3</v>
-      </c>
-      <c r="E10">
-        <v>0.22881482418326365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>0.78520339321672072</v>
-      </c>
-      <c r="B11">
-        <v>-0.1071040237158753</v>
-      </c>
-      <c r="C11">
-        <v>-0.38000225266945842</v>
-      </c>
-      <c r="D11">
-        <v>0.15394164404199101</v>
-      </c>
-      <c r="E11">
-        <v>8.4210939199439894E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>0.82536352319376083</v>
-      </c>
-      <c r="B12">
-        <v>-0.29010452223678002</v>
-      </c>
-      <c r="C12">
-        <v>-0.24655191412977828</v>
-      </c>
-      <c r="D12">
-        <v>0.23911922332351623</v>
-      </c>
-      <c r="E12">
-        <v>-0.1370202424008016</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>0.84231790661952699</v>
-      </c>
-      <c r="B13">
-        <v>-0.44168746204582676</v>
-      </c>
-      <c r="C13">
-        <v>1.1751253514108257E-2</v>
-      </c>
-      <c r="D13">
-        <v>0.20258262421651135</v>
-      </c>
-      <c r="E13">
-        <v>-0.16224401880796399</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>0.82985732841461479</v>
-      </c>
-      <c r="B14">
-        <v>-0.44569513058388627</v>
-      </c>
-      <c r="C14">
-        <v>1.2278046558362546E-2</v>
-      </c>
-      <c r="D14">
-        <v>0.20928941618480418</v>
-      </c>
-      <c r="E14">
-        <v>-0.17163697647252732</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>0.81698871727514966</v>
-      </c>
-      <c r="B15">
-        <v>-0.49888325279121792</v>
-      </c>
-      <c r="C15">
-        <v>6.5483914215884995E-2</v>
-      </c>
-      <c r="D15">
-        <v>0.11949308212960442</v>
-      </c>
-      <c r="E15">
-        <v>-0.10276223546361188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>0.7697276106028399</v>
-      </c>
-      <c r="B16">
-        <v>-0.54331078689794443</v>
-      </c>
-      <c r="C16">
-        <v>0.22392536056363682</v>
-      </c>
-      <c r="D16">
-        <v>-6.4583304199387195E-2</v>
-      </c>
-      <c r="E16">
-        <v>3.6161659738386663E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>0.67870380910673656</v>
-      </c>
-      <c r="B17">
-        <v>-0.55410525571760894</v>
-      </c>
-      <c r="C17">
-        <v>0.3213907530173688</v>
-      </c>
-      <c r="D17">
-        <v>-0.22966022368786079</v>
-      </c>
-      <c r="E17">
-        <v>0.14542124410790594</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>0.58039710820051171</v>
-      </c>
-      <c r="B18">
-        <v>-0.53893207552606848</v>
-      </c>
-      <c r="C18">
-        <v>0.3331410100171539</v>
-      </c>
-      <c r="D18">
-        <v>-0.35010798099241075</v>
-      </c>
-      <c r="E18">
-        <v>0.24569331214540713</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8149F0D6-97FD-4C0F-95A5-6811858D2FEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8651D7C-8DDE-447F-9C56-C7B6402A4893}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -728,308 +435,574 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.58100615482347007</v>
+        <v>0.1838456877243505</v>
       </c>
       <c r="B1">
-        <v>0.41458975584331575</v>
+        <v>0.22332975757656856</v>
       </c>
       <c r="C1">
-        <v>0.24564147977806786</v>
+        <v>0.19404639039016017</v>
       </c>
       <c r="D1">
-        <v>0.47464198248025774</v>
+        <v>0.41761691223857889</v>
       </c>
       <c r="E1">
-        <v>7.8963499933775619E-2</v>
+        <v>0.38987309249475194</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0.5100505927195943</v>
+        <v>0.15871224655254795</v>
       </c>
       <c r="B2">
-        <v>0.56889943906541696</v>
+        <v>0.29040668307684886</v>
       </c>
       <c r="C2">
-        <v>0.34066045902919229</v>
+        <v>0.32008166997874399</v>
       </c>
       <c r="D2">
-        <v>0.2920009762711176</v>
+        <v>0.2265054869756552</v>
       </c>
       <c r="E2">
-        <v>0.12043454061015184</v>
+        <v>0.40523883789750026</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>0.62161071534245704</v>
+        <v>0.19207444015224248</v>
       </c>
       <c r="B3">
-        <v>0.54272410318682318</v>
+        <v>0.29765043038340339</v>
       </c>
       <c r="C3">
-        <v>0.30256469699859595</v>
+        <v>0.28746046162098693</v>
       </c>
       <c r="D3">
-        <v>0.1224923698715961</v>
+        <v>0.15618206431016152</v>
       </c>
       <c r="E3">
-        <v>-8.9594809144527512E-2</v>
+        <v>-5.9922091174641347E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>0.70124394311781546</v>
+        <v>0.21397483523064123</v>
       </c>
       <c r="B4">
-        <v>0.49003356622195643</v>
+        <v>0.26964617577742533</v>
       </c>
       <c r="C4">
-        <v>0.17998668107982949</v>
+        <v>0.2452641545920865</v>
       </c>
       <c r="D4">
-        <v>-0.14347106163505477</v>
+        <v>-3.0784383052112389E-2</v>
       </c>
       <c r="E4">
-        <v>-0.17415525862397735</v>
+        <v>-0.30982766179712606</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>0.77298995415418459</v>
+        <v>0.23911255455656499</v>
       </c>
       <c r="B5">
-        <v>0.43084103794382744</v>
+        <v>0.25022638993386725</v>
       </c>
       <c r="C5">
-        <v>0.10335296048350516</v>
+        <v>0.12739042136242962</v>
       </c>
       <c r="D5">
-        <v>-0.26479471233663404</v>
+        <v>-0.15089328466788712</v>
       </c>
       <c r="E5">
-        <v>-0.10224340587146329</v>
+        <v>-0.30486970503593191</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>0.76391463538334159</v>
+        <v>0.2453933299038954</v>
       </c>
       <c r="B6">
-        <v>0.4420417400710655</v>
+        <v>0.24225738369687455</v>
       </c>
       <c r="C6">
-        <v>2.3456496025225912E-2</v>
+        <v>1.0371283708417178E-2</v>
       </c>
       <c r="D6">
-        <v>-0.30213855743044643</v>
+        <v>-0.24247563718249387</v>
       </c>
       <c r="E6">
-        <v>-6.8959401481005919E-2</v>
+        <v>-0.25272956115376694</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>0.80396932808264521</v>
+        <v>0.25426511321043299</v>
       </c>
       <c r="B7">
-        <v>0.37413582836431847</v>
+        <v>0.2039230016956099</v>
       </c>
       <c r="C7">
-        <v>-0.10937152514082643</v>
+        <v>-0.11473163326803433</v>
       </c>
       <c r="D7">
-        <v>-0.24421834342593843</v>
+        <v>-0.26004229062450657</v>
       </c>
       <c r="E7">
-        <v>2.4212672299927681E-2</v>
+        <v>-9.3673377010145012E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>0.81708572298465476</v>
+        <v>0.24893498590527924</v>
       </c>
       <c r="B8">
-        <v>0.2340882478196728</v>
+        <v>0.1783901906041114</v>
       </c>
       <c r="C8">
-        <v>-0.26685448575747944</v>
+        <v>-0.25357178472585473</v>
       </c>
       <c r="D8">
-        <v>-0.12725130797598488</v>
+        <v>-0.25598528303009194</v>
       </c>
       <c r="E8">
-        <v>0.11624766514511407</v>
+        <v>7.4976508310676648E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>0.8085780647148112</v>
+        <v>0.25266553301116501</v>
       </c>
       <c r="B9">
-        <v>0.17705146722924217</v>
+        <v>0.1033149714239909</v>
       </c>
       <c r="C9">
-        <v>-0.38974908670386654</v>
+        <v>-0.32942167004129058</v>
       </c>
       <c r="D9">
-        <v>9.0486355371627184E-4</v>
+        <v>-0.16937171317629884</v>
       </c>
       <c r="E9">
-        <v>0.15274922672637786</v>
+        <v>0.2588276487941682</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>0.79347482009405024</v>
+        <v>0.24686338848701686</v>
       </c>
       <c r="B10">
-        <v>3.4394834083576215E-2</v>
+        <v>5.2217173295324201E-2</v>
       </c>
       <c r="C10">
-        <v>-0.43661107252594888</v>
+        <v>-0.39027565323690305</v>
       </c>
       <c r="D10">
-        <v>0.12848856937698333</v>
+        <v>-9.1028624734013873E-3</v>
       </c>
       <c r="E10">
-        <v>0.16261950292386557</v>
+        <v>0.28572172577728655</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>0.80715108013848835</v>
+        <v>0.25189024854093345</v>
       </c>
       <c r="B11">
-        <v>-7.6871006723518112E-2</v>
+        <v>-5.8164521324409177E-2</v>
       </c>
       <c r="C11">
-        <v>-0.35444659733483974</v>
+        <v>-0.33111703449226038</v>
       </c>
       <c r="D11">
-        <v>0.18732702652868816</v>
+        <v>0.18803559810773834</v>
       </c>
       <c r="E11">
-        <v>0.12230489860712948</v>
+        <v>0.10817432657602385</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>0.83409778119122369</v>
+        <v>0.2647259106251596</v>
       </c>
       <c r="B12">
-        <v>-0.30929787884360044</v>
+        <v>-0.15942852194574542</v>
       </c>
       <c r="C12">
-        <v>-0.18811751318536912</v>
+        <v>-0.21562027959168331</v>
       </c>
       <c r="D12">
-        <v>0.15118393192787663</v>
+        <v>0.28745990104182284</v>
       </c>
       <c r="E12">
-        <v>-0.12780672849557104</v>
+        <v>-0.16362634537361409</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>0.83663008951161788</v>
+        <v>0.27033320554851609</v>
       </c>
       <c r="B13">
-        <v>-0.47113601948406669</v>
+        <v>-0.24364534281111094</v>
       </c>
       <c r="C13">
-        <v>1.8104027719147202E-2</v>
+        <v>1.0758003869199242E-2</v>
       </c>
       <c r="D13">
-        <v>5.9151226772731193E-2</v>
+        <v>0.23792502486968242</v>
       </c>
       <c r="E13">
-        <v>-0.21598637277695298</v>
+        <v>-0.20007798131077351</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>0.8241078027395734</v>
+        <v>0.2663371672903912</v>
       </c>
       <c r="B14">
-        <v>-0.4885221373162586</v>
+        <v>-0.24587171086683501</v>
       </c>
       <c r="C14">
-        <v>3.8975385723725949E-2</v>
+        <v>1.1202162852735835E-2</v>
       </c>
       <c r="D14">
-        <v>6.7481702782296732E-2</v>
+        <v>0.24556173401628409</v>
       </c>
       <c r="E14">
-        <v>-0.22362680027147411</v>
+        <v>-0.21194537023534721</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>0.8122721588703925</v>
+        <v>0.2622218308630142</v>
       </c>
       <c r="B15">
-        <v>-0.50667635281886136</v>
+        <v>-0.27525803838347662</v>
       </c>
       <c r="C15">
-        <v>9.2817357642452122E-2</v>
+        <v>5.7718592953720144E-2</v>
       </c>
       <c r="D15">
-        <v>4.8997248153037971E-2</v>
+        <v>0.13973228202292015</v>
       </c>
       <c r="E15">
-        <v>-0.14607460265837266</v>
+        <v>-0.12709841123636037</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>0.80511910126573283</v>
+        <v>0.24707323989771562</v>
       </c>
       <c r="B16">
-        <v>-0.51801494260856606</v>
+        <v>-0.29985077565332791</v>
       </c>
       <c r="C16">
-        <v>0.15688870772204416</v>
+        <v>0.19630999655851247</v>
       </c>
       <c r="D16">
-        <v>-1.4539362021304127E-3</v>
+        <v>-7.7598650807050418E-2</v>
       </c>
       <c r="E16">
-        <v>-7.6154375271811556E-2</v>
+        <v>4.3845264077632187E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>0.67207588427775566</v>
+        <v>0.21787543736500761</v>
       </c>
       <c r="B17">
-        <v>-0.48057917535748229</v>
+        <v>-0.30587187886223988</v>
       </c>
       <c r="C17">
-        <v>0.33284827100940689</v>
+        <v>0.28147795598291281</v>
       </c>
       <c r="D17">
-        <v>-0.13349781080449719</v>
+        <v>-0.27198338233430108</v>
       </c>
       <c r="E17">
-        <v>0.23711734846320928</v>
+        <v>0.17806692637690966</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>0.55948194719351885</v>
+        <v>0.18633483715777813</v>
       </c>
       <c r="B18">
-        <v>-0.49487733714330989</v>
+        <v>-0.29752510401225846</v>
       </c>
       <c r="C18">
-        <v>0.37411330587560043</v>
+        <v>0.29155340592256052</v>
       </c>
       <c r="D18">
-        <v>-0.17591947894053628</v>
+        <v>-0.41357763857233093</v>
       </c>
       <c r="E18">
-        <v>0.40879393920385088</v>
+        <v>0.30189810887500029</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5678E6-AD6D-4F1F-8478-E70D2EE072B6}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1">
+        <v>0.18361519121602998</v>
+      </c>
+      <c r="B1">
+        <v>0.23235351499848825</v>
+      </c>
+      <c r="C1">
+        <v>0.22171704845211754</v>
+      </c>
+      <c r="D1">
+        <v>0.55171834746358295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0.1607902952729173</v>
+      </c>
+      <c r="B2">
+        <v>0.31680723589722981</v>
+      </c>
+      <c r="C2">
+        <v>0.31081650390153009</v>
+      </c>
+      <c r="D2">
+        <v>0.35445913875354979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>0.19610678108873825</v>
+      </c>
+      <c r="B3">
+        <v>0.30291109371957486</v>
+      </c>
+      <c r="C3">
+        <v>0.27778245876435403</v>
+      </c>
+      <c r="D3">
+        <v>0.1519143412212422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>0.22111042103483591</v>
+      </c>
+      <c r="B4">
+        <v>0.27352542288654647</v>
+      </c>
+      <c r="C4">
+        <v>0.16712163068825947</v>
+      </c>
+      <c r="D4">
+        <v>-0.16990878829303524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>0.24402469358818438</v>
+      </c>
+      <c r="B5">
+        <v>0.24109041259287872</v>
+      </c>
+      <c r="C5">
+        <v>9.6455875251775264E-2</v>
+      </c>
+      <c r="D5">
+        <v>-0.31162778748543851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>0.24054914405173325</v>
+      </c>
+      <c r="B6">
+        <v>0.24774009427294397</v>
+      </c>
+      <c r="C6">
+        <v>2.4174612561141888E-2</v>
+      </c>
+      <c r="D6">
+        <v>-0.36222587037735315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>0.25365991428708357</v>
+      </c>
+      <c r="B7">
+        <v>0.20912803691235582</v>
+      </c>
+      <c r="C7">
+        <v>-9.7686488639226909E-2</v>
+      </c>
+      <c r="D7">
+        <v>-0.28905987740594852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>0.25773940698387676</v>
+      </c>
+      <c r="B8">
+        <v>0.13056052483425534</v>
+      </c>
+      <c r="C8">
+        <v>-0.24427953537991387</v>
+      </c>
+      <c r="D8">
+        <v>-0.15352183754167084</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>0.25541683837454576</v>
+      </c>
+      <c r="B9">
+        <v>9.8861934778425642E-2</v>
+      </c>
+      <c r="C9">
+        <v>-0.35853801654474593</v>
+      </c>
+      <c r="D9">
+        <v>3.5649625759267521E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>0.25036554199847433</v>
+      </c>
+      <c r="B10">
+        <v>1.8930328552058839E-2</v>
+      </c>
+      <c r="C10">
+        <v>-0.40338714927297725</v>
+      </c>
+      <c r="D10">
+        <v>0.14823238256926946</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>0.25443236888115739</v>
+      </c>
+      <c r="B11">
+        <v>-4.2601932340172177E-2</v>
+      </c>
+      <c r="C11">
+        <v>-0.32738695746548213</v>
+      </c>
+      <c r="D11">
+        <v>0.21997330056146583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>0.26255153276340604</v>
+      </c>
+      <c r="B12">
+        <v>-0.17252498955889081</v>
+      </c>
+      <c r="C12">
+        <v>-0.17511551557757921</v>
+      </c>
+      <c r="D12">
+        <v>0.18298392265719043</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>0.26383623570888654</v>
+      </c>
+      <c r="B13">
+        <v>-0.26350103695164551</v>
+      </c>
+      <c r="C13">
+        <v>1.7543903546071715E-2</v>
+      </c>
+      <c r="D13">
+        <v>6.7540936509272134E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>0.25989040654429552</v>
+      </c>
+      <c r="B14">
+        <v>-0.27321222454682115</v>
+      </c>
+      <c r="C14">
+        <v>3.6611526135195381E-2</v>
+      </c>
+      <c r="D14">
+        <v>7.7454693110558692E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>0.25616347193929684</v>
+      </c>
+      <c r="B15">
+        <v>-0.28335141169395961</v>
+      </c>
+      <c r="C15">
+        <v>8.5850978107771841E-2</v>
+      </c>
+      <c r="D15">
+        <v>5.6282684416897787E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>0.2539104319331294</v>
+      </c>
+      <c r="B16">
+        <v>-0.28972016968145675</v>
+      </c>
+      <c r="C16">
+        <v>0.14453145641776174</v>
+      </c>
+      <c r="D16">
+        <v>-1.57498654301335E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>0.21195872335170951</v>
+      </c>
+      <c r="B17">
+        <v>-0.26878832738981911</v>
+      </c>
+      <c r="C17">
+        <v>0.30540467328552245</v>
+      </c>
+      <c r="D17">
+        <v>-0.15350125083511776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>0.17646597484990112</v>
+      </c>
+      <c r="B18">
+        <v>-0.27664216495264982</v>
+      </c>
+      <c r="C18">
+        <v>0.34313309930176789</v>
+      </c>
+      <c r="D18">
+        <v>-0.2035284116040384</v>
       </c>
     </row>
   </sheetData>
@@ -1039,145 +1012,67 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6962C5C6-AAED-4266-81BE-F5F7DD7D0647}">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3889F3-B60A-4694-BF20-32949BB894C6}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1">
-        <v>-0.12859611897714582</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>14.417211880605596</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.29905999709032366</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>-0.96191398971309972</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>-0.18373501683911767</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>0.17175783236289677</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.18077234636120629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>5.1020387289300771E-2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>19.777924552457215</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0797A02C-F863-4FE0-937C-D9F98A518706}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>-9.5543077992301662E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>0.20762282353124942</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>-0.12647126219926219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>0.17597481794341097</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>19.71861261851015</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5766A5-D745-4C2D-9E9E-DC750134A66E}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>1.0185262282628256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1">
-        <v>0.34948453407695279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>-0.93433053024355084</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C1CA5F-333E-4955-9EDB-6C46D3B4E001}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>-6.6689122486577213E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>-3.2859698977874163E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1">
-        <v>1.0414291300909932</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>2.0306218268590008</v>
+        <v>-4.2572017602857823E-2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>6.8366047603686933E-2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>8.411905236682525E-2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
